--- a/biology/Botanique/Amyloplaste/Amyloplaste.xlsx
+++ b/biology/Botanique/Amyloplaste/Amyloplaste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amyloplaste désigne un organite spécifique des cellules végétales. C'est un plaste qui s'est spécialisé dans le stockage de l'amidon. Il est présent en particulier dans les cellules des organes de réserves, comme les tiges souterraines hypertrophiées (tubercules) de pomme de terre. Étant dépourvu de pigment, il appartient à la famille des leucoplastes.
 Il est formé par des couches concentriques autour d'un point spécifique appelé hile. L'accumulation de l'amidon se fait à partir de ce point et est stocké dans des couches que l'on appelle aussi des strates. Ces strates sont délimitées par des stries qui sont visibles au microscope photonique.
@@ -516,7 +528,9 @@
           <t>Comparaison</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Proplaste
 Plaste
